--- a/Test/Lawnmower/T2/Sensors_data_1000018.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9920227461240642</v>
+        <v>0.9945041664979538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003653206843366542</v>
+        <v>0.00025183296851645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2747156445983789</v>
+        <v>0.02988985757751994</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,18 +500,68 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9205624910937276</v>
+        <v>0.9289510463187347</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004695827446901183</v>
+        <v>0.002974156764599781</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08954551935113592</v>
+        <v>0.0205740293565454</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8507151693962998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.004429006403939719</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08592846757874811</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9987814425310262</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.879777606410259e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.003871584829034214</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
